--- a/CompetitionTask1/CompetitionTask1/ExternalFiles/ShareSkills_TestData.xlsx
+++ b/CompetitionTask1/CompetitionTask1/ExternalFiles/ShareSkills_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\sampletest\CompetitionTask1\CompetitionTask1\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B23EEAC-2C3B-43B9-867F-69A63DDF9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED08AAB-FF80-4FDB-88EE-2C7FEDE6843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>44920</v>
+        <v>44951</v>
       </c>
       <c r="J2" s="1">
-        <v>44951</v>
+        <v>44982</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -719,10 +719,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>44922</v>
+        <v>44953</v>
       </c>
       <c r="J3" s="1">
-        <v>44953</v>
+        <v>44984</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
